--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.660262333333333</v>
+        <v>1.136164666666667</v>
       </c>
       <c r="H2">
-        <v>7.980786999999999</v>
+        <v>3.408494</v>
       </c>
       <c r="I2">
-        <v>0.0452718476260851</v>
+        <v>0.01984988071065505</v>
       </c>
       <c r="J2">
-        <v>0.0452718476260851</v>
+        <v>0.01984988071065505</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6636866806905556</v>
+        <v>0.2834522546477778</v>
       </c>
       <c r="R2">
-        <v>5.973180126214999</v>
+        <v>2.55107029183</v>
       </c>
       <c r="S2">
-        <v>0.0452718476260851</v>
+        <v>0.01984988071065505</v>
       </c>
       <c r="T2">
-        <v>0.0452718476260851</v>
+        <v>0.01984988071065505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>165.268997</v>
       </c>
       <c r="I3">
-        <v>0.9375056431777864</v>
+        <v>0.9624690187571424</v>
       </c>
       <c r="J3">
-        <v>0.9375056431777865</v>
+        <v>0.9624690187571425</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>123.694754459665</v>
       </c>
       <c r="S3">
-        <v>0.9375056431777864</v>
+        <v>0.9624690187571424</v>
       </c>
       <c r="T3">
-        <v>0.9375056431777865</v>
+        <v>0.9624690187571425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.036085</v>
       </c>
       <c r="I4">
-        <v>0.01722250919612848</v>
+        <v>0.01768110053220253</v>
       </c>
       <c r="J4">
-        <v>0.01722250919612848</v>
+        <v>0.01768110053220253</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,10 +694,10 @@
         <v>2.272342637825</v>
       </c>
       <c r="S4">
-        <v>0.01722250919612848</v>
+        <v>0.01768110053220253</v>
       </c>
       <c r="T4">
-        <v>0.01722250919612848</v>
+        <v>0.01768110053220253</v>
       </c>
     </row>
   </sheetData>
